--- a/8店销售情况-1110.xlsx
+++ b/8店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="963" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="408">
   <si>
     <t>（父）ASIN</t>
   </si>
@@ -675,6 +675,9 @@
     <t>Y8804</t>
   </si>
   <si>
+    <t>CA$56.97</t>
+  </si>
+  <si>
     <t>B0C6XKYNML</t>
   </si>
   <si>
@@ -687,6 +690,12 @@
     <t>Y8805-RE</t>
   </si>
   <si>
+    <t>CA$49.98</t>
+  </si>
+  <si>
+    <t>CA$31.98</t>
+  </si>
+  <si>
     <t>B0C6T6CF46</t>
   </si>
   <si>
@@ -699,6 +708,9 @@
     <t>Y8816-SC</t>
   </si>
   <si>
+    <t>CA$14.99</t>
+  </si>
+  <si>
     <t>B0C6T6LBF7</t>
   </si>
   <si>
@@ -706,6 +718,9 @@
   </si>
   <si>
     <t>Y8815-BL</t>
+  </si>
+  <si>
+    <t>CA$13.99</t>
   </si>
   <si>
     <t>B0BQ6438HR</t>
@@ -1233,7 +1248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="9">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1261,34 +1276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1302,14 +1289,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1349,6 +1328,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1399,7 +1393,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,55 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,31 +1459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,6 +1495,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1546,7 +1519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,7 +1567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,6 +1603,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1611,21 +1626,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1658,6 +1658,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1716,148 +1731,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,52 +1908,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2135,7 +2150,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2144,7 +2159,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -2429,7 +2444,7 @@
       <selection activeCell="S19" sqref="S$1:S$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -5710,11 +5725,11 @@
   <sheetPr/>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S$1:S$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -9515,8 +9530,8 @@
       <c r="R56" s="11">
         <v>0</v>
       </c>
-      <c r="S56" s="13">
-        <v>56.97</v>
+      <c r="S56" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="T56" s="9" t="s">
         <v>174</v>
@@ -9530,16 +9545,16 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E57" s="9">
         <v>14</v>
@@ -9583,8 +9598,8 @@
       <c r="R57" s="11">
         <v>0</v>
       </c>
-      <c r="S57" s="13">
-        <v>49.98</v>
+      <c r="S57" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="T57" s="9" t="s">
         <v>174</v>
@@ -9651,8 +9666,8 @@
       <c r="R58" s="11">
         <v>0</v>
       </c>
-      <c r="S58" s="13">
-        <v>31.98</v>
+      <c r="S58" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="T58" s="9" t="s">
         <v>174</v>
@@ -9666,16 +9681,16 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E59" s="9">
         <v>44</v>
@@ -9719,8 +9734,8 @@
       <c r="R59" s="11">
         <v>0</v>
       </c>
-      <c r="S59" s="13">
-        <v>14.99</v>
+      <c r="S59" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="T59" s="9" t="s">
         <v>174</v>
@@ -9787,8 +9802,8 @@
       <c r="R60" s="11">
         <v>0</v>
       </c>
-      <c r="S60" s="13">
-        <v>14.99</v>
+      <c r="S60" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="T60" s="9" t="s">
         <v>174</v>
@@ -9805,13 +9820,13 @@
         <v>170</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E61" s="9">
         <v>24</v>
@@ -9855,8 +9870,8 @@
       <c r="R61" s="11">
         <v>0</v>
       </c>
-      <c r="S61" s="13">
-        <v>13.99</v>
+      <c r="S61" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="T61" s="9" t="s">
         <v>174</v>
@@ -9923,8 +9938,8 @@
       <c r="R62" s="11">
         <v>0</v>
       </c>
-      <c r="S62" s="13">
-        <v>14.99</v>
+      <c r="S62" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="T62" s="9" t="s">
         <v>174</v>
@@ -9951,7 +9966,7 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -13359,16 +13374,16 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E51" s="9">
         <v>39</v>
@@ -13430,13 +13445,13 @@
         <v>146</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E52" s="9">
         <v>3</v>
@@ -13631,16 +13646,16 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E55" s="9">
         <v>26</v>
@@ -13971,16 +13986,16 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E60" s="9">
         <v>54</v>
@@ -14039,16 +14054,16 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E61" s="9">
         <v>97</v>
@@ -14178,13 +14193,13 @@
         <v>170</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E63" s="9">
         <v>51</v>
@@ -14379,16 +14394,16 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E66" s="9">
         <v>5</v>
@@ -14456,101 +14471,101 @@
   <sheetPr/>
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="12.8981481481481" customWidth="1"/>
+    <col min="1" max="2" width="12.9" customWidth="1"/>
     <col min="3" max="3" width="11.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="4.67592592592593" customWidth="1"/>
-    <col min="5" max="5" width="28.9351851851852" customWidth="1"/>
-    <col min="6" max="6" width="24.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="13.4351851851852" customWidth="1"/>
-    <col min="8" max="8" width="13.8981481481481" customWidth="1"/>
-    <col min="9" max="9" width="5.67592592592593" customWidth="1"/>
+    <col min="4" max="4" width="4.675" customWidth="1"/>
+    <col min="5" max="5" width="28.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.4333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.9" customWidth="1"/>
+    <col min="9" max="9" width="5.675" customWidth="1"/>
     <col min="10" max="10" width="5.16666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.94444444444444" customWidth="1"/>
-    <col min="12" max="12" width="14.037037037037" customWidth="1"/>
-    <col min="13" max="14" width="9.76851851851852" customWidth="1"/>
-    <col min="15" max="15" width="16.8055555555556" customWidth="1"/>
-    <col min="16" max="16" width="13.9444444444444" customWidth="1"/>
-    <col min="17" max="18" width="11.4351851851852" customWidth="1"/>
-    <col min="19" max="19" width="9.80555555555556" customWidth="1"/>
-    <col min="20" max="21" width="17.6296296296296" customWidth="1"/>
-    <col min="22" max="23" width="15.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="9.94166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.0333333333333" customWidth="1"/>
+    <col min="13" max="14" width="9.76666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.8083333333333" customWidth="1"/>
+    <col min="16" max="16" width="13.9416666666667" customWidth="1"/>
+    <col min="17" max="18" width="11.4333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.80833333333333" customWidth="1"/>
+    <col min="20" max="21" width="17.6333333333333" customWidth="1"/>
+    <col min="22" max="23" width="15.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -14561,16 +14576,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>128</v>
@@ -14632,16 +14647,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>117</v>
@@ -14701,16 +14716,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>128</v>
@@ -14770,16 +14785,16 @@
         <v>45238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>27</v>
@@ -14841,16 +14856,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>61</v>
@@ -14910,16 +14925,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>94</v>
@@ -14981,13 +14996,13 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>94</v>
@@ -15052,13 +15067,13 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>27</v>
@@ -15123,16 +15138,16 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>61</v>
@@ -15194,16 +15209,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>38</v>
@@ -15265,16 +15280,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -15336,16 +15351,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>94</v>
@@ -15405,16 +15420,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>128</v>
@@ -15474,16 +15489,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>61</v>
@@ -15545,16 +15560,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>145</v>
@@ -15614,16 +15629,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>44</v>
@@ -15685,16 +15700,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>35</v>
@@ -15756,16 +15771,16 @@
         <v>45238</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>202</v>
@@ -15819,22 +15834,22 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I20" s="4">
         <v>553</v>
@@ -15888,16 +15903,16 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>205</v>
@@ -15957,16 +15972,16 @@
         <v>45238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>69</v>
@@ -16028,16 +16043,16 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>205</v>
@@ -16097,22 +16112,22 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I24" s="4">
         <v>118</v>
@@ -16166,22 +16181,22 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I25" s="4">
         <v>167</v>
@@ -16235,16 +16250,16 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>31</v>
@@ -16306,16 +16321,16 @@
         <v>45238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>41</v>
@@ -16377,16 +16392,16 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>69</v>
@@ -16448,16 +16463,16 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>69</v>
@@ -16519,16 +16534,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>110</v>
@@ -16588,16 +16603,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>51</v>
@@ -16657,16 +16672,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>51</v>
@@ -16728,16 +16743,16 @@
         <v>45238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>82</v>
@@ -16799,16 +16814,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>91</v>
@@ -16870,16 +16885,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>85</v>
@@ -16941,16 +16956,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>121</v>
@@ -17012,16 +17027,16 @@
         <v>45238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>41</v>
@@ -17083,16 +17098,16 @@
         <v>45238</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>31</v>
@@ -17154,22 +17169,22 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I39" s="4">
         <v>888</v>
@@ -17217,16 +17232,16 @@
         <v>45236</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>124</v>
@@ -17288,16 +17303,16 @@
         <v>45238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>98</v>
@@ -17359,16 +17374,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>48</v>
@@ -17430,16 +17445,16 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>48</v>
@@ -17501,16 +17516,16 @@
         <v>45236</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>124</v>
@@ -17570,16 +17585,16 @@
         <v>45236</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>124</v>
@@ -17639,13 +17654,13 @@
         <v>45238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>94</v>
@@ -17710,22 +17725,22 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I47" s="4">
         <v>46</v>
@@ -17773,16 +17788,16 @@
         <v>45238</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>24</v>
@@ -17844,16 +17859,16 @@
         <v>45238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>155</v>
@@ -17907,13 +17922,13 @@
         <v>45238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>91</v>
@@ -17970,16 +17985,16 @@
         <v>45238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>31</v>
@@ -18041,13 +18056,13 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>85</v>
@@ -18112,13 +18127,13 @@
         <v>45238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>27</v>
@@ -18181,16 +18196,16 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>135</v>
@@ -18250,22 +18265,22 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I55" s="4">
         <v>235</v>
@@ -18313,13 +18328,13 @@
         <v>45238</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>117</v>
@@ -18384,16 +18399,16 @@
         <v>45238</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>139</v>
@@ -18453,16 +18468,16 @@
         <v>45238</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>72</v>
@@ -18524,16 +18539,16 @@
         <v>45238</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>88</v>
@@ -18595,16 +18610,16 @@
         <v>45238</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>65</v>
@@ -18664,16 +18679,16 @@
         <v>45238</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>65</v>
@@ -18735,16 +18750,16 @@
         <v>45238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>139</v>
@@ -18804,13 +18819,13 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>169</v>
@@ -18867,13 +18882,13 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>169</v>
@@ -18936,16 +18951,16 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>165</v>
@@ -19005,16 +19020,16 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>165</v>
@@ -19076,16 +19091,16 @@
         <v>45238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>214</v>
@@ -19147,16 +19162,16 @@
         <v>45238</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>214</v>
@@ -19218,13 +19233,13 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>113</v>
@@ -19289,22 +19304,22 @@
         <v>45238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I70" s="4">
         <v>197</v>
@@ -19358,16 +19373,16 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>214</v>
@@ -19421,16 +19436,16 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>98</v>
@@ -19492,13 +19507,13 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>169</v>
@@ -19561,22 +19576,22 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I74" s="4">
         <v>791</v>
@@ -19630,16 +19645,16 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>139</v>
@@ -19699,13 +19714,13 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>85</v>
@@ -19770,13 +19785,13 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>113</v>
@@ -19833,22 +19848,22 @@
         <v>45236</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I78" s="4">
         <v>7</v>
@@ -19896,16 +19911,16 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>178</v>
@@ -19959,22 +19974,22 @@
         <v>45238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I80" s="4">
         <v>36</v>
@@ -20028,22 +20043,22 @@
         <v>45238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I81" s="4">
         <v>9</v>
@@ -20091,22 +20106,22 @@
         <v>45238</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I82" s="4">
         <v>182</v>
@@ -20160,16 +20175,16 @@
         <v>45236</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>173</v>
@@ -20229,22 +20244,22 @@
         <v>45236</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I84" s="4">
         <v>10</v>
@@ -20298,22 +20313,22 @@
         <v>45238</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I85" s="4">
         <v>26</v>
@@ -20368,99 +20383,99 @@
       <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.287037037037" customWidth="1"/>
-    <col min="2" max="2" width="12.8981481481481" customWidth="1"/>
-    <col min="3" max="3" width="20.4814814814815" customWidth="1"/>
-    <col min="4" max="4" width="4.67592592592593" customWidth="1"/>
-    <col min="5" max="5" width="28.9351851851852" customWidth="1"/>
-    <col min="6" max="6" width="24.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="13.4351851851852" customWidth="1"/>
-    <col min="8" max="8" width="13.8981481481481" customWidth="1"/>
-    <col min="9" max="9" width="6.84259259259259" customWidth="1"/>
+    <col min="1" max="1" width="13.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.9" customWidth="1"/>
+    <col min="3" max="3" width="20.4833333333333" customWidth="1"/>
+    <col min="4" max="4" width="4.675" customWidth="1"/>
+    <col min="5" max="5" width="28.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.4333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.9" customWidth="1"/>
+    <col min="9" max="9" width="6.84166666666667" customWidth="1"/>
     <col min="10" max="10" width="5.16666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.94444444444444" customWidth="1"/>
-    <col min="12" max="12" width="14.037037037037" customWidth="1"/>
-    <col min="13" max="13" width="9.76851851851852" customWidth="1"/>
-    <col min="14" max="14" width="10.9351851851852" customWidth="1"/>
-    <col min="15" max="15" width="16.8055555555556" customWidth="1"/>
-    <col min="16" max="16" width="13.9444444444444" customWidth="1"/>
-    <col min="17" max="18" width="11.4351851851852" customWidth="1"/>
-    <col min="19" max="19" width="9.80555555555556" customWidth="1"/>
-    <col min="20" max="21" width="17.6296296296296" customWidth="1"/>
-    <col min="22" max="23" width="15.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="9.94166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.0333333333333" customWidth="1"/>
+    <col min="13" max="13" width="9.76666666666667" customWidth="1"/>
+    <col min="14" max="14" width="10.9333333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.8083333333333" customWidth="1"/>
+    <col min="16" max="16" width="13.9416666666667" customWidth="1"/>
+    <col min="17" max="18" width="11.4333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.80833333333333" customWidth="1"/>
+    <col min="20" max="21" width="17.6333333333333" customWidth="1"/>
+    <col min="22" max="23" width="15.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -20471,16 +20486,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>128</v>
@@ -20542,16 +20557,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>117</v>
@@ -20613,16 +20628,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>128</v>
@@ -20682,16 +20697,16 @@
         <v>45224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>117</v>
@@ -20745,16 +20760,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
@@ -20816,16 +20831,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>61</v>
@@ -20887,16 +20902,16 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>94</v>
@@ -20958,13 +20973,13 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>94</v>
@@ -21029,13 +21044,13 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -21100,16 +21115,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>61</v>
@@ -21171,16 +21186,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -21242,16 +21257,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>38</v>
@@ -21313,16 +21328,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>94</v>
@@ -21382,16 +21397,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>128</v>
@@ -21451,16 +21466,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>61</v>
@@ -21522,16 +21537,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>145</v>
@@ -21591,16 +21606,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>44</v>
@@ -21662,16 +21677,16 @@
         <v>45238</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>35</v>
@@ -21733,16 +21748,16 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>202</v>
@@ -21802,22 +21817,22 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I21" s="4">
         <v>943</v>
@@ -21871,16 +21886,16 @@
         <v>45238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>205</v>
@@ -21940,16 +21955,16 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>69</v>
@@ -22011,16 +22026,16 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>205</v>
@@ -22082,22 +22097,22 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I25" s="4">
         <v>213</v>
@@ -22151,22 +22166,22 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I26" s="4">
         <v>303</v>
@@ -22220,16 +22235,16 @@
         <v>45238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>31</v>
@@ -22291,16 +22306,16 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>41</v>
@@ -22362,16 +22377,16 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>69</v>
@@ -22433,16 +22448,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>69</v>
@@ -22504,16 +22519,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>110</v>
@@ -22573,16 +22588,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>51</v>
@@ -22642,16 +22657,16 @@
         <v>45238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>51</v>
@@ -22713,16 +22728,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>82</v>
@@ -22784,16 +22799,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>91</v>
@@ -22855,16 +22870,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>85</v>
@@ -22926,16 +22941,16 @@
         <v>45238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>121</v>
@@ -22997,16 +23012,16 @@
         <v>45238</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>41</v>
@@ -23068,16 +23083,16 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>31</v>
@@ -23139,22 +23154,22 @@
         <v>45238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I40" s="4">
         <v>1448</v>
@@ -23202,16 +23217,16 @@
         <v>45236</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>124</v>
@@ -23273,16 +23288,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>98</v>
@@ -23344,16 +23359,16 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>48</v>
@@ -23415,16 +23430,16 @@
         <v>45238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>48</v>
@@ -23486,16 +23501,16 @@
         <v>45236</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>124</v>
@@ -23557,16 +23572,16 @@
         <v>45236</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>124</v>
@@ -23626,13 +23641,13 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>94</v>
@@ -23697,22 +23712,22 @@
         <v>45238</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I48" s="4">
         <v>87</v>
@@ -23760,16 +23775,16 @@
         <v>45238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>24</v>
@@ -23831,16 +23846,16 @@
         <v>45238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>155</v>
@@ -23894,16 +23909,16 @@
         <v>45228</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>142</v>
@@ -23955,13 +23970,13 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>91</v>
@@ -24018,16 +24033,16 @@
         <v>45238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>31</v>
@@ -24089,13 +24104,13 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>85</v>
@@ -24160,13 +24175,13 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>27</v>
@@ -24231,16 +24246,16 @@
         <v>45238</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>135</v>
@@ -24300,22 +24315,22 @@
         <v>45238</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I57" s="4">
         <v>421</v>
@@ -24363,13 +24378,13 @@
         <v>45238</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>117</v>
@@ -24434,16 +24449,16 @@
         <v>45238</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>139</v>
@@ -24503,16 +24518,16 @@
         <v>45238</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>72</v>
@@ -24574,16 +24589,16 @@
         <v>45238</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>88</v>
@@ -24645,16 +24660,16 @@
         <v>45238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>65</v>
@@ -24716,16 +24731,16 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>65</v>
@@ -24787,16 +24802,16 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>139</v>
@@ -24856,13 +24871,13 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>169</v>
@@ -24925,13 +24940,13 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>169</v>
@@ -24994,16 +25009,16 @@
         <v>45238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>165</v>
@@ -25063,16 +25078,16 @@
         <v>45238</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>165</v>
@@ -25134,16 +25149,16 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>214</v>
@@ -25205,16 +25220,16 @@
         <v>45238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>214</v>
@@ -25276,13 +25291,13 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>113</v>
@@ -25347,22 +25362,22 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I72" s="4">
         <v>287</v>
@@ -25416,16 +25431,16 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>214</v>
@@ -25485,16 +25500,16 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>98</v>
@@ -25556,13 +25571,13 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>169</v>
@@ -25625,22 +25640,22 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I76" s="4">
         <v>2631</v>
@@ -25696,16 +25711,16 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>139</v>
@@ -25765,13 +25780,13 @@
         <v>45238</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>85</v>
@@ -25836,13 +25851,13 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>113</v>
@@ -25899,22 +25914,22 @@
         <v>45236</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I80" s="4">
         <v>33</v>
@@ -25962,16 +25977,16 @@
         <v>45238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>178</v>
@@ -26025,22 +26040,22 @@
         <v>45238</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I82" s="4">
         <v>60</v>
@@ -26094,22 +26109,22 @@
         <v>45238</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I83" s="4">
         <v>17</v>
@@ -26157,22 +26172,22 @@
         <v>45238</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I84" s="4">
         <v>381</v>
@@ -26226,16 +26241,16 @@
         <v>45236</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>173</v>
@@ -26295,22 +26310,22 @@
         <v>45236</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I86" s="4">
         <v>22</v>
@@ -26364,22 +26379,22 @@
         <v>45238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I87" s="4">
         <v>45</v>
@@ -26440,98 +26455,98 @@
       <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="13.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="20.4814814814815" customWidth="1"/>
-    <col min="4" max="4" width="4.67592592592593" customWidth="1"/>
-    <col min="5" max="5" width="28.9351851851852" customWidth="1"/>
-    <col min="6" max="6" width="24.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="13.4351851851852" customWidth="1"/>
-    <col min="8" max="8" width="13.8981481481481" customWidth="1"/>
-    <col min="9" max="9" width="6.84259259259259" customWidth="1"/>
+    <col min="1" max="2" width="13.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.4833333333333" customWidth="1"/>
+    <col min="4" max="4" width="4.675" customWidth="1"/>
+    <col min="5" max="5" width="28.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.4333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.9" customWidth="1"/>
+    <col min="9" max="9" width="6.84166666666667" customWidth="1"/>
     <col min="10" max="10" width="5.16666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.94444444444444" customWidth="1"/>
-    <col min="12" max="12" width="14.037037037037" customWidth="1"/>
-    <col min="13" max="13" width="9.76851851851852" customWidth="1"/>
-    <col min="14" max="14" width="10.9351851851852" customWidth="1"/>
-    <col min="15" max="15" width="16.8055555555556" customWidth="1"/>
-    <col min="16" max="16" width="13.9444444444444" customWidth="1"/>
-    <col min="17" max="18" width="11.4351851851852" customWidth="1"/>
-    <col min="19" max="19" width="9.80555555555556" customWidth="1"/>
-    <col min="20" max="21" width="17.6296296296296" customWidth="1"/>
-    <col min="22" max="23" width="15.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="9.94166666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.0333333333333" customWidth="1"/>
+    <col min="13" max="13" width="9.76666666666667" customWidth="1"/>
+    <col min="14" max="14" width="10.9333333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.8083333333333" customWidth="1"/>
+    <col min="16" max="16" width="13.9416666666667" customWidth="1"/>
+    <col min="17" max="18" width="11.4333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.80833333333333" customWidth="1"/>
+    <col min="20" max="21" width="17.6333333333333" customWidth="1"/>
+    <col min="22" max="23" width="15.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -26542,16 +26557,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>128</v>
@@ -26613,16 +26628,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>117</v>
@@ -26684,16 +26699,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>128</v>
@@ -26755,16 +26770,16 @@
         <v>45224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>117</v>
@@ -26824,16 +26839,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
@@ -26895,16 +26910,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>61</v>
@@ -26966,16 +26981,16 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>94</v>
@@ -27037,13 +27052,13 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>94</v>
@@ -27108,13 +27123,13 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -27179,16 +27194,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>61</v>
@@ -27250,16 +27265,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -27321,16 +27336,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>38</v>
@@ -27392,16 +27407,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>94</v>
@@ -27463,16 +27478,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>128</v>
@@ -27532,16 +27547,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>61</v>
@@ -27603,16 +27618,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>145</v>
@@ -27672,16 +27687,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>44</v>
@@ -27743,16 +27758,16 @@
         <v>45214</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>44</v>
@@ -27806,16 +27821,16 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>35</v>
@@ -27877,16 +27892,16 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>202</v>
@@ -27948,16 +27963,16 @@
         <v>45214</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>38</v>
@@ -28019,22 +28034,22 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I23" s="4">
         <v>1542</v>
@@ -28088,16 +28103,16 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>205</v>
@@ -28157,16 +28172,16 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>69</v>
@@ -28228,16 +28243,16 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>205</v>
@@ -28299,16 +28314,16 @@
         <v>45216</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>35</v>
@@ -28370,22 +28385,22 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I28" s="4">
         <v>366</v>
@@ -28439,22 +28454,22 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I29" s="4">
         <v>572</v>
@@ -28508,16 +28523,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>31</v>
@@ -28579,16 +28594,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>41</v>
@@ -28650,16 +28665,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>69</v>
@@ -28721,16 +28736,16 @@
         <v>45238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>69</v>
@@ -28792,16 +28807,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>110</v>
@@ -28863,16 +28878,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>51</v>
@@ -28934,16 +28949,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>51</v>
@@ -29005,16 +29020,16 @@
         <v>45238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>82</v>
@@ -29076,16 +29091,16 @@
         <v>45238</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>91</v>
@@ -29147,16 +29162,16 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>85</v>
@@ -29218,16 +29233,16 @@
         <v>45238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>121</v>
@@ -29289,16 +29304,16 @@
         <v>45238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>41</v>
@@ -29360,16 +29375,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>31</v>
@@ -29431,22 +29446,22 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I43" s="4">
         <v>2596</v>
@@ -29500,16 +29515,16 @@
         <v>45236</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>124</v>
@@ -29571,16 +29586,16 @@
         <v>45238</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>98</v>
@@ -29642,16 +29657,16 @@
         <v>45238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>48</v>
@@ -29713,16 +29728,16 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>48</v>
@@ -29784,16 +29799,16 @@
         <v>45236</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>124</v>
@@ -29855,16 +29870,16 @@
         <v>45236</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>124</v>
@@ -29926,16 +29941,16 @@
         <v>45219</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>98</v>
@@ -29995,16 +30010,16 @@
         <v>45218</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>158</v>
@@ -30064,13 +30079,13 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>94</v>
@@ -30135,13 +30150,13 @@
         <v>45214</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>205</v>
@@ -30204,22 +30219,22 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I54" s="4">
         <v>173</v>
@@ -30273,16 +30288,16 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>24</v>
@@ -30344,16 +30359,16 @@
         <v>45212</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>24</v>
@@ -30407,16 +30422,16 @@
         <v>45238</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>155</v>
@@ -30478,16 +30493,16 @@
         <v>45228</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>142</v>
@@ -30547,16 +30562,16 @@
         <v>45223</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>142</v>
@@ -30618,16 +30633,16 @@
         <v>45222</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>142</v>
@@ -30689,13 +30704,13 @@
         <v>45238</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>91</v>
@@ -30752,16 +30767,16 @@
         <v>45238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>31</v>
@@ -30823,13 +30838,13 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>85</v>
@@ -30894,13 +30909,13 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>27</v>
@@ -30965,16 +30980,16 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>135</v>
@@ -31034,22 +31049,22 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I66" s="4">
         <v>983</v>
@@ -31097,13 +31112,13 @@
         <v>45238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>117</v>
@@ -31168,16 +31183,16 @@
         <v>45238</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>139</v>
@@ -31237,16 +31252,16 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>72</v>
@@ -31308,16 +31323,16 @@
         <v>45238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>88</v>
@@ -31379,16 +31394,16 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>65</v>
@@ -31450,16 +31465,16 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>65</v>
@@ -31521,16 +31536,16 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>139</v>
@@ -31592,13 +31607,13 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>169</v>
@@ -31661,13 +31676,13 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>169</v>
@@ -31730,16 +31745,16 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>165</v>
@@ -31799,16 +31814,16 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>165</v>
@@ -31870,16 +31885,16 @@
         <v>45238</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>214</v>
@@ -31941,16 +31956,16 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>214</v>
@@ -32012,13 +32027,13 @@
         <v>45238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>113</v>
@@ -32083,22 +32098,22 @@
         <v>45238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I81" s="4">
         <v>297</v>
@@ -32152,16 +32167,16 @@
         <v>45238</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>214</v>
@@ -32221,16 +32236,16 @@
         <v>45238</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>98</v>
@@ -32292,13 +32307,13 @@
         <v>45238</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>169</v>
@@ -32361,22 +32376,22 @@
         <v>45238</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I85" s="4">
         <v>3492</v>
@@ -32432,16 +32447,16 @@
         <v>45238</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>139</v>
@@ -32501,13 +32516,13 @@
         <v>45238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>85</v>
@@ -32572,13 +32587,13 @@
         <v>45238</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>113</v>
@@ -32635,22 +32650,22 @@
         <v>45236</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I89" s="4">
         <v>54</v>
@@ -32698,16 +32713,16 @@
         <v>45238</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>178</v>
@@ -32761,22 +32776,22 @@
         <v>45238</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I91" s="4">
         <v>134</v>
@@ -32830,22 +32845,22 @@
         <v>45238</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I92" s="4">
         <v>90</v>
@@ -32893,22 +32908,22 @@
         <v>45238</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I93" s="4">
         <v>458</v>
@@ -32962,16 +32977,16 @@
         <v>45236</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>173</v>
@@ -33031,22 +33046,22 @@
         <v>45236</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I95" s="4">
         <v>31</v>
@@ -33100,22 +33115,22 @@
         <v>45238</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I96" s="4">
         <v>50</v>

--- a/8店销售情况-1110.xlsx
+++ b/8店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="963" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="销售10.10-11.08" sheetId="3" r:id="rId3"/>
     <sheet name="商品推广11.02-11.08" sheetId="4" r:id="rId4"/>
     <sheet name="商品推广10.25-11.08" sheetId="5" r:id="rId5"/>
-    <sheet name="商品推10.10-11.08" sheetId="6" r:id="rId6"/>
+    <sheet name="商品推广10.10-11.08" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5725,7 +5725,7 @@
   <sheetPr/>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
@@ -26451,8 +26451,8 @@
   <sheetPr/>
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
